--- a/medicine/Psychotrope/Montefalco_rosso/Montefalco_rosso.xlsx
+++ b/medicine/Psychotrope/Montefalco_rosso/Montefalco_rosso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Montefalco rosso   est un vin rouge DOCG d'Italie produit dans la région  de Montefalco, ville de  la province de Pérouse en Ombrie.
@@ -512,7 +524,9 @@
           <t>Région de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Montefalco rosso  est un vin DOCG dont la production est consentie uniquement dans la commune de Montefalco et dans la province de Pérouse.
 </t>
@@ -543,7 +557,9 @@
           <t>Caracteristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Montefalco rosso DOCG  implique l'utilisation de cépages Sagrantino (10 % - 15 %)
 et Sangiovese (60 % - 70 %).
@@ -575,7 +591,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Couleur : Rouge rubis.
 Parfum : parfum caractéristique et delicat.
@@ -607,7 +625,9 @@
           <t>Consommation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Montefalco rosso se sert avec de la viande braisée, rôtis et gibier.
 </t>
